--- a/resources/data-imports/Weapons/hammers.xlsx
+++ b/resources/data-imports/Weapons/hammers.xlsx
@@ -898,11 +898,11 @@
   </sheetPr>
   <dimension ref="A1:BT60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI2" activeCellId="0" sqref="AI2:AI60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1309,7 +1309,7 @@
         <v>75</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="2" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>75</v>
       </c>
       <c r="AI4" s="2" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="2" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>75</v>
       </c>
       <c r="AI5" s="2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>75</v>
       </c>
       <c r="AI6" s="2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="2" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>75</v>
       </c>
       <c r="AI7" s="2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="2" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>75</v>
       </c>
       <c r="AI8" s="2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="2" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>75</v>
       </c>
       <c r="AI9" s="2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="2" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>75</v>
       </c>
       <c r="AI10" s="2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>75</v>
       </c>
       <c r="AI11" s="2" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="2" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>75</v>
       </c>
       <c r="AI12" s="2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>75</v>
       </c>
       <c r="AI13" s="2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="2" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="AI14" s="2" t="n">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>75</v>
       </c>
       <c r="AI15" s="2" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="2" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>75</v>
       </c>
       <c r="AI16" s="2" t="n">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>75</v>
       </c>
       <c r="AI17" s="2" t="n">
-        <v>0.336</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="2" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>75</v>
       </c>
       <c r="AI18" s="2" t="n">
-        <v>0.364</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>75</v>
       </c>
       <c r="AI19" s="2" t="n">
-        <v>0.392</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="2" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>75</v>
       </c>
       <c r="AI20" s="2" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>75</v>
       </c>
       <c r="AI21" s="2" t="n">
-        <v>0.448</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="2" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>75</v>
       </c>
       <c r="AI22" s="2" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="2" t="n">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>75</v>
       </c>
       <c r="AI23" s="2" t="n">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="2" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>75</v>
       </c>
       <c r="AI24" s="2" t="n">
-        <v>0.532</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="2" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>75</v>
       </c>
       <c r="AI25" s="2" t="n">
-        <v>0.56</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="2" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>75</v>
       </c>
       <c r="AI26" s="2" t="n">
-        <v>0.588</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="2" t="n">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>75</v>
       </c>
       <c r="AI27" s="2" t="n">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="2" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>75</v>
       </c>
       <c r="AI28" s="2" t="n">
-        <v>0.672</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="2" t="n">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>75</v>
       </c>
       <c r="AI29" s="2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="2" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>75</v>
       </c>
       <c r="AI30" s="2" t="n">
-        <v>0.728</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="2" t="n">
         <v>0</v>
@@ -4512,7 +4512,7 @@
         <v>75</v>
       </c>
       <c r="AI31" s="2" t="n">
-        <v>0.756</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="2" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>75</v>
       </c>
       <c r="AI32" s="2" t="n">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="2" t="n">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>75</v>
       </c>
       <c r="AI33" s="2" t="n">
-        <v>0.812</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="2" t="n">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>75</v>
       </c>
       <c r="AI34" s="2" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="2" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>75</v>
       </c>
       <c r="AI35" s="2" t="n">
-        <v>0.868</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="2" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>75</v>
       </c>
       <c r="AI36" s="2" t="n">
-        <v>0.896</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="2" t="n">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>75</v>
       </c>
       <c r="AI37" s="2" t="n">
-        <v>0.924</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="2" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>75</v>
       </c>
       <c r="AI38" s="2" t="n">
-        <v>0.952</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="2" t="n">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>75</v>
       </c>
       <c r="AI39" s="2" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="2" t="n">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>75</v>
       </c>
       <c r="AI40" s="2" t="n">
-        <v>1.008</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="2" t="n">
         <v>0</v>
@@ -5669,7 +5669,7 @@
         <v>75</v>
       </c>
       <c r="AI41" s="2" t="n">
-        <v>1.036</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="2" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>75</v>
       </c>
       <c r="AI42" s="2" t="n">
-        <v>1.064</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="2" t="n">
         <v>0</v>
@@ -5901,7 +5901,7 @@
         <v>75</v>
       </c>
       <c r="AI43" s="2" t="n">
-        <v>1.092</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="2" t="n">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>75</v>
       </c>
       <c r="AI44" s="2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="2" t="n">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>75</v>
       </c>
       <c r="AI45" s="2" t="n">
-        <v>1.148</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="2" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>75</v>
       </c>
       <c r="AI46" s="2" t="n">
-        <v>1.176</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="2" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>75</v>
       </c>
       <c r="AI47" s="2" t="n">
-        <v>1.204</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="2" t="n">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>75</v>
       </c>
       <c r="AI48" s="2" t="n">
-        <v>1.232</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="2" t="n">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>75</v>
       </c>
       <c r="AI49" s="2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AJ49" s="2" t="n">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>75</v>
       </c>
       <c r="AI50" s="2" t="n">
-        <v>1.288</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="2" t="n">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>75</v>
       </c>
       <c r="AI51" s="2" t="n">
-        <v>1.316</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="2" t="n">
         <v>0</v>
@@ -6945,7 +6945,7 @@
         <v>75</v>
       </c>
       <c r="AI52" s="2" t="n">
-        <v>1.344</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="2" t="n">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>75</v>
       </c>
       <c r="AI53" s="2" t="n">
-        <v>1.372</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="2" t="n">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>75</v>
       </c>
       <c r="AI54" s="2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="2" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>75</v>
       </c>
       <c r="AI55" s="2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="2" t="n">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>75</v>
       </c>
       <c r="AI56" s="2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="2" t="n">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>75</v>
       </c>
       <c r="AI57" s="2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="2" t="n">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>75</v>
       </c>
       <c r="AI58" s="2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="2" t="n">
         <v>0</v>
@@ -7757,7 +7757,7 @@
         <v>75</v>
       </c>
       <c r="AI59" s="2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="2" t="n">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>75</v>
       </c>
       <c r="AI60" s="2" t="n">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="2" t="n">
         <v>0</v>
